--- a/lab assignment tracker ymsli 2021.xlsx
+++ b/lab assignment tracker ymsli 2021.xlsx
@@ -20,9 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t xml:space="preserve">FirstName</t>
+    <t xml:space="preserve">SN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name</t>
   </si>
   <si>
     <t xml:space="preserve">Assesment-1</t>
@@ -47,7 +53,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -77,13 +83,6 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -148,16 +147,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -250,168 +245,152 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I1000"/>
+  <dimension ref="A1:J997"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="33.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="8" style="0" width="8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="26.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="33.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="9" style="0" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="I2" s="5"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="J2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
+      <c r="A8" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="n">
+      <c r="A9" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
     </row>
-    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1397,9 +1376,6 @@
     <row r="995" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="996" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="997" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="998" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="999" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1000" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
